--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/InVitro AIS/LABMANAGER/1.1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/InVitro AIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FC8285-2AC4-4C37-9025-6D221370A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{45FC8285-2AC4-4C37-9025-6D221370A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75188926-71B9-4B35-93DE-115B204BC8C9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="503">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1816,9 +1816,6 @@
     <t>2025-03-20T11:49:40Z</t>
   </si>
   <si>
-    <t>L’applicativo effettua controlli preventivi sul dato inserito.</t>
-  </si>
-  <si>
     <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository. L'utente dovrà correggere la non conformità e riprovare a firmare il referto.
 È stata introdotta la possibilità di bypassare la validazione, configurando opportunamente il software. In questo modo, nei casi di emergenza (come diagnosi estemporanee), il medico potrà comunque procedere con la produzione e la firma del referto.</t>
   </si>
@@ -2008,6 +2005,9 @@
   <si>
     <t>"title": "Errore generico",
 "detail": "Errore timeout",</t>
+  </si>
+  <si>
+    <t>campo valorizzato di default</t>
   </si>
 </sst>
 </file>
@@ -4134,10 +4134,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
+      <selection pane="bottomRight" activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9642,13 +9642,13 @@
         <v>45751</v>
       </c>
       <c r="G150" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="I150" s="37" t="s">
         <v>492</v>
-      </c>
-      <c r="H150" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="I150" s="37" t="s">
-        <v>493</v>
       </c>
       <c r="J150" s="29" t="s">
         <v>64</v>
@@ -9689,13 +9689,13 @@
         <v>45750</v>
       </c>
       <c r="G151" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="H151" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="I151" s="37" t="s">
         <v>489</v>
-      </c>
-      <c r="H151" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="I151" s="37" t="s">
-        <v>490</v>
       </c>
       <c r="J151" s="29" t="s">
         <v>64</v>
@@ -9736,15 +9736,17 @@
         <v>45751</v>
       </c>
       <c r="G152" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="I152" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="H152" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="I152" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="J152" s="29"/>
+      <c r="J152" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="K152" s="29"/>
       <c r="L152" s="29"/>
       <c r="M152" s="29"/>
@@ -9781,13 +9783,13 @@
         <v>45750</v>
       </c>
       <c r="G153" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="H153" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="H153" s="33" t="s">
-        <v>487</v>
-      </c>
       <c r="I153" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J153" s="29" t="s">
         <v>64</v>
@@ -9801,7 +9803,7 @@
         <v>64</v>
       </c>
       <c r="O153" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P153" s="29" t="s">
         <v>232</v>
@@ -9813,7 +9815,7 @@
         <v>232</v>
       </c>
       <c r="S153" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T153" s="29"/>
       <c r="U153" s="34"/>
@@ -9842,13 +9844,13 @@
         <v>45750</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I154" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J154" s="29" t="s">
         <v>64</v>
@@ -9862,7 +9864,7 @@
         <v>64</v>
       </c>
       <c r="O154" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P154" s="29" t="s">
         <v>232</v>
@@ -9874,7 +9876,7 @@
         <v>232</v>
       </c>
       <c r="S154" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T154" s="29"/>
       <c r="U154" s="34"/>
@@ -9917,7 +9919,7 @@
         <v>64</v>
       </c>
       <c r="O155" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P155" s="29" t="s">
         <v>232</v>
@@ -9929,7 +9931,7 @@
         <v>232</v>
       </c>
       <c r="S155" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T155" s="29"/>
       <c r="U155" s="34"/>
@@ -9978,7 +9980,7 @@
         <v>64</v>
       </c>
       <c r="O156" s="29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P156" s="29" t="s">
         <v>232</v>
@@ -9990,7 +9992,7 @@
         <v>232</v>
       </c>
       <c r="S156" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T156" s="29"/>
       <c r="U156" s="34"/>
@@ -10019,13 +10021,13 @@
         <v>45736</v>
       </c>
       <c r="G157" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="H157" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="I157" s="37" t="s">
         <v>448</v>
-      </c>
-      <c r="H157" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="I157" s="37" t="s">
-        <v>449</v>
       </c>
       <c r="J157" s="29" t="s">
         <v>64</v>
@@ -10039,7 +10041,7 @@
         <v>64</v>
       </c>
       <c r="O157" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P157" s="29" t="s">
         <v>232</v>
@@ -10051,7 +10053,7 @@
         <v>232</v>
       </c>
       <c r="S157" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T157" s="29"/>
       <c r="U157" s="34"/>
@@ -10080,13 +10082,13 @@
         <v>45736</v>
       </c>
       <c r="G158" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="H158" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="I158" s="37" t="s">
         <v>452</v>
-      </c>
-      <c r="H158" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="I158" s="37" t="s">
-        <v>453</v>
       </c>
       <c r="J158" s="29" t="s">
         <v>64</v>
@@ -10100,7 +10102,7 @@
         <v>64</v>
       </c>
       <c r="O158" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P158" s="29" t="s">
         <v>232</v>
@@ -10112,7 +10114,7 @@
         <v>232</v>
       </c>
       <c r="S158" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T158" s="29"/>
       <c r="U158" s="34"/>
@@ -10141,13 +10143,13 @@
         <v>45737</v>
       </c>
       <c r="G159" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="H159" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="I159" s="37" t="s">
         <v>456</v>
-      </c>
-      <c r="H159" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="I159" s="37" t="s">
-        <v>457</v>
       </c>
       <c r="J159" s="29" t="s">
         <v>64</v>
@@ -10161,7 +10163,7 @@
         <v>64</v>
       </c>
       <c r="O159" s="29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P159" s="29" t="s">
         <v>232</v>
@@ -10173,7 +10175,7 @@
         <v>232</v>
       </c>
       <c r="S159" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T159" s="29"/>
       <c r="U159" s="34"/>
@@ -10202,13 +10204,13 @@
         <v>45742</v>
       </c>
       <c r="G160" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="H160" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="I160" s="37" t="s">
         <v>460</v>
-      </c>
-      <c r="H160" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="I160" s="37" t="s">
-        <v>461</v>
       </c>
       <c r="J160" s="29" t="s">
         <v>64</v>
@@ -10222,7 +10224,7 @@
         <v>64</v>
       </c>
       <c r="O160" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P160" s="29" t="s">
         <v>232</v>
@@ -10234,7 +10236,7 @@
         <v>232</v>
       </c>
       <c r="S160" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T160" s="29"/>
       <c r="U160" s="34"/>
@@ -10263,13 +10265,13 @@
         <v>45742</v>
       </c>
       <c r="G161" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="H161" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="I161" s="37" t="s">
         <v>464</v>
-      </c>
-      <c r="H161" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="I161" s="37" t="s">
-        <v>465</v>
       </c>
       <c r="J161" s="29" t="s">
         <v>64</v>
@@ -10283,7 +10285,7 @@
         <v>64</v>
       </c>
       <c r="O161" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P161" s="29" t="s">
         <v>232</v>
@@ -10295,7 +10297,7 @@
         <v>232</v>
       </c>
       <c r="S161" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T161" s="29"/>
       <c r="U161" s="34"/>
@@ -10324,13 +10326,13 @@
         <v>45742</v>
       </c>
       <c r="G162" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="H162" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="I162" s="37" t="s">
         <v>468</v>
-      </c>
-      <c r="H162" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="I162" s="37" t="s">
-        <v>469</v>
       </c>
       <c r="J162" s="29" t="s">
         <v>64</v>
@@ -10344,7 +10346,7 @@
         <v>64</v>
       </c>
       <c r="O162" s="29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P162" s="29" t="s">
         <v>232</v>
@@ -10356,7 +10358,7 @@
         <v>232</v>
       </c>
       <c r="S162" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T162" s="29"/>
       <c r="U162" s="34"/>
@@ -10385,13 +10387,13 @@
         <v>45744</v>
       </c>
       <c r="G163" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="H163" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="I163" s="37" t="s">
         <v>482</v>
-      </c>
-      <c r="H163" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="I163" s="37" t="s">
-        <v>483</v>
       </c>
       <c r="J163" s="29" t="s">
         <v>64</v>
@@ -10405,7 +10407,7 @@
         <v>64</v>
       </c>
       <c r="O163" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P163" s="29" t="s">
         <v>232</v>
@@ -10417,7 +10419,7 @@
         <v>232</v>
       </c>
       <c r="S163" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T163" s="29"/>
       <c r="U163" s="34"/>
@@ -10446,13 +10448,13 @@
         <v>45743</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J164" s="29" t="s">
         <v>64</v>
@@ -10466,7 +10468,7 @@
         <v>64</v>
       </c>
       <c r="O164" s="29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P164" s="29" t="s">
         <v>232</v>
@@ -10478,7 +10480,7 @@
         <v>232</v>
       </c>
       <c r="S164" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T164" s="29"/>
       <c r="U164" s="34"/>
@@ -10507,13 +10509,13 @@
         <v>45743</v>
       </c>
       <c r="G165" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="H165" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="I165" s="37" t="s">
         <v>473</v>
-      </c>
-      <c r="H165" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="I165" s="37" t="s">
-        <v>474</v>
       </c>
       <c r="J165" s="29" t="s">
         <v>64</v>
@@ -10527,7 +10529,7 @@
         <v>64</v>
       </c>
       <c r="O165" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P165" s="29" t="s">
         <v>232</v>
@@ -10539,7 +10541,7 @@
         <v>232</v>
       </c>
       <c r="S165" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T165" s="29"/>
       <c r="U165" s="34"/>
@@ -11123,13 +11125,13 @@
         <v>45751</v>
       </c>
       <c r="G181" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="H181" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="I181" s="37" t="s">
         <v>495</v>
-      </c>
-      <c r="H181" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="I181" s="37" t="s">
-        <v>496</v>
       </c>
       <c r="J181" s="29" t="s">
         <v>64</v>
@@ -11507,7 +11509,7 @@
         <v>232</v>
       </c>
       <c r="K191" s="29" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/InVitro AIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/InVitro AIS/LABMANAGER/1.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{45FC8285-2AC4-4C37-9025-6D221370A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75188926-71B9-4B35-93DE-115B204BC8C9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{45FC8285-2AC4-4C37-9025-6D221370A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C8C48E-3ED5-43AB-A3C1-2FEEF190F177}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="502">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2005,9 +2005,6 @@
   <si>
     <t>"title": "Errore generico",
 "detail": "Errore timeout",</t>
-  </si>
-  <si>
-    <t>campo valorizzato di default</t>
   </si>
 </sst>
 </file>
@@ -4134,7 +4131,7 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="K191" sqref="K191"/>
@@ -9744,9 +9741,7 @@
       <c r="I152" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="J152" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="J152" s="29"/>
       <c r="K152" s="29"/>
       <c r="L152" s="29"/>
       <c r="M152" s="29"/>
@@ -11509,7 +11504,7 @@
         <v>232</v>
       </c>
       <c r="K191" s="29" t="s">
-        <v>502</v>
+        <v>239</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
@@ -15682,7 +15677,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K180</xm:sqref>
+          <xm:sqref>K10:K181 K191</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17933,27 +17928,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18211,10 +18185,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18237,20 +18243,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/InVitro AIS/LABMANAGER/1.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{45FC8285-2AC4-4C37-9025-6D221370A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C8C48E-3ED5-43AB-A3C1-2FEEF190F177}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{45FC8285-2AC4-4C37-9025-6D221370A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6719EE-94F3-4564-8EE2-182D85642B7B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="502">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2741,6 +2741,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4134,7 +4138,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K191" sqref="K191"/>
+      <selection pane="bottomRight" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9741,7 +9745,9 @@
       <c r="I152" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="J152" s="29"/>
+      <c r="J152" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="K152" s="29"/>
       <c r="L152" s="29"/>
       <c r="M152" s="29"/>
@@ -17928,6 +17934,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18185,42 +18212,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18243,9 +18238,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/InVitro AIS/LABMANAGER/1.1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiara.giardinodilol\Downloads\LABMANAGER 1\LABMANAGER\1.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{E0971277-4CB5-42BD-82F0-B9A2459B3502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165755B0-C404-49D3-AF59-39B993D0CE97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{945E2349-FF97-41CD-BC86-201642B41A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="499">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2604,10 +2604,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3978,10 +3974,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J180" sqref="J180"/>
+      <selection pane="bottomRight" activeCell="Q160" sqref="Q160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9675,7 +9671,9 @@
       </c>
       <c r="K154" s="38"/>
       <c r="L154" s="38"/>
-      <c r="M154" s="38"/>
+      <c r="M154" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N154" s="38" t="s">
         <v>64</v>
       </c>
@@ -9734,7 +9732,9 @@
       </c>
       <c r="K155" s="38"/>
       <c r="L155" s="38"/>
-      <c r="M155" s="38"/>
+      <c r="M155" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N155" s="38" t="s">
         <v>64</v>
       </c>
@@ -9787,7 +9787,9 @@
       </c>
       <c r="K156" s="38"/>
       <c r="L156" s="38"/>
-      <c r="M156" s="38"/>
+      <c r="M156" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N156" s="38" t="s">
         <v>64</v>
       </c>
@@ -9846,7 +9848,9 @@
       </c>
       <c r="K157" s="38"/>
       <c r="L157" s="38"/>
-      <c r="M157" s="38"/>
+      <c r="M157" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N157" s="38" t="s">
         <v>64</v>
       </c>
@@ -9905,7 +9909,9 @@
       </c>
       <c r="K158" s="38"/>
       <c r="L158" s="38"/>
-      <c r="M158" s="38"/>
+      <c r="M158" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N158" s="38" t="s">
         <v>64</v>
       </c>
@@ -9964,7 +9970,9 @@
       </c>
       <c r="K159" s="38"/>
       <c r="L159" s="38"/>
-      <c r="M159" s="38"/>
+      <c r="M159" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N159" s="38" t="s">
         <v>64</v>
       </c>
@@ -10023,7 +10031,9 @@
       </c>
       <c r="K160" s="38"/>
       <c r="L160" s="38"/>
-      <c r="M160" s="38"/>
+      <c r="M160" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N160" s="38" t="s">
         <v>64</v>
       </c>
@@ -10082,7 +10092,9 @@
       </c>
       <c r="K161" s="38"/>
       <c r="L161" s="38"/>
-      <c r="M161" s="38"/>
+      <c r="M161" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N161" s="38" t="s">
         <v>64</v>
       </c>
@@ -10141,7 +10153,9 @@
       </c>
       <c r="K162" s="38"/>
       <c r="L162" s="38"/>
-      <c r="M162" s="38"/>
+      <c r="M162" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N162" s="38" t="s">
         <v>64</v>
       </c>
@@ -10200,7 +10214,9 @@
       </c>
       <c r="K163" s="38"/>
       <c r="L163" s="38"/>
-      <c r="M163" s="38"/>
+      <c r="M163" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N163" s="38" t="s">
         <v>64</v>
       </c>
@@ -10259,7 +10275,9 @@
       </c>
       <c r="K164" s="38"/>
       <c r="L164" s="38"/>
-      <c r="M164" s="38"/>
+      <c r="M164" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N164" s="38" t="s">
         <v>64</v>
       </c>
@@ -10318,7 +10336,9 @@
       </c>
       <c r="K165" s="38"/>
       <c r="L165" s="38"/>
-      <c r="M165" s="38"/>
+      <c r="M165" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N165" s="38" t="s">
         <v>64</v>
       </c>
@@ -10377,7 +10397,9 @@
       </c>
       <c r="K166" s="38"/>
       <c r="L166" s="38"/>
-      <c r="M166" s="38"/>
+      <c r="M166" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N166" s="38" t="s">
         <v>64</v>
       </c>
@@ -15483,7 +15505,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10:N192 J10:J192 P10:R192</xm:sqref>
+          <xm:sqref>J10:J192 P10:R192 M10:N192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -17746,6 +17768,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18003,15 +18034,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -18025,6 +18047,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18039,14 +18069,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
+++ b/GATEWAY/S1#111DEDALUS0000/DEDALUS_SPA/LABMANAGER/1.1.1/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiara.giardinodilol\Downloads\LABMANAGER 1\LABMANAGER\1.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/mariasole_ieraci_dedalus_eu/Documents/Documenti/Progetto/XMLCDA2/Accreditamento/InVitro AIS/LABMANAGER/1.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{945E2349-FF97-41CD-BC86-201642B41A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{E66ABFEB-4249-4AD6-AFA0-AF59A41CA3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EF7927A-ADAB-4B51-9895-1C9962883488}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="502">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1713,203 +1713,212 @@
     <t>471, 472</t>
   </si>
   <si>
-    <t>2025-05-09T11:54:08Z</t>
-  </si>
-  <si>
-    <t>ab186ea2d94151aa9aff9b24bec9b335</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.8483fba57af323db4ad9ac90e7373fe82a615aa52a8a0bc512d2b22d5acbfcaf.f44f5ce2ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository. L'utente dovrà correggere la non conformità e riprovare a firmare il referto.
-È stata introdotta la possibilità di bypassare la validazione, configurando opportunamente il software. In questo modo, nei casi di emergenza (come diagnosi estemporanee), il medico potrà comunque procedere con la produzione e la firma del referto.</t>
+    <t>"title":"Errore semantico.",
+"detail":"[ERRORE-b69| Sotto-sezione Anamnesi (entry Anamnesi familiare): L'elemento entry/organizer/subject/relatedSubject deve contenere l'elemento code.]"</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>"title":"Campo token JWT non valido.",
+"detail":"Il campo action_id non corretto"</t>
+  </si>
+  <si>
+    <t>"title":"Campo token JWT non valido.",
+"detail":"Il campo purpose_of_use non valorizzato"</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: DEDALUS SPA</t>
+  </si>
+  <si>
+    <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository.  Dopo l'analisi dell'errore in backoffice e la correzione della non conformità evidenziata, l'utente potrà riprovare a firmare il referto.</t>
+  </si>
+  <si>
+    <t>DEDALUS</t>
+  </si>
+  <si>
+    <t>subject_application_id: LABMANAGER</t>
+  </si>
+  <si>
+    <t>subject_application_version: 1.1.1</t>
+  </si>
+  <si>
+    <t>0d1d4383bd31fa86ba4c13623127196a</t>
+  </si>
+  <si>
+    <t>2025-06-05T18:48:13Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.3debaf09771f51653de07d9a9a08a495105f8ead99fc76d373c1789f9dfe4f3d.2f25bf1e53^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>"title": "Errore generico",
+"detail": "Errore timeout",</t>
   </si>
   <si>
     <t>"title":"Errore vocabolario.",
-"detail":"Almeno uno dei seguenti vocaboli non censito: [CodeSystem: 2.16.840.1.113883.6.1 v2.80, Codes: CODICE_MICRO_ERRATO_TEST432]"</t>
-  </si>
-  <si>
-    <t>2025-05-09T12:36:27Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.8483fba57af323db4ad9ac90e7373fe82a615aa52a8a0bc512d2b22d5acbfcaf.54d502ad6b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8f22c1b5c399ffe43c876ca39aed8490</t>
+"detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.1 v2.80, Codes: CODICE_MICRO_ERRATO_TEST432]"</t>
+  </si>
+  <si>
+    <t>2025-06-06T09:11:07Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.71e6611a3cce1f9d5430585be9e19acad3eeac352340aad930fae7e05472d6db.07fd7bdd71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>47dc0ce0390156baa04e5353dc69cb9e</t>
   </si>
   <si>
     <t>"title":"Errore vocabolario.",
-"detail":"Almeno uno dei seguenti vocaboli non censito: [CodeSystem: 2.16.840.1.113883.2.9.77.22.11.7, Codes: CODICE_STATO_ERRATO_TEST433]"</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.694c736c6d7fe34a5aa2404748cd7da7d9e5c2f6b6fb353df474a1dc31caa32c.7a31c8a1ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T13:11:23Z</t>
-  </si>
-  <si>
-    <t>cd24dee2a2948717bf5c128a134ee5e6</t>
+"detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.77.22.11.7, Codes: CODICE_STATO_ERRATO_TEST433]"</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.71e6611a3cce1f9d5430585be9e19acad3eeac352340aad930fae7e05472d6db.44ca83ea00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-06T10:09:21Z</t>
+  </si>
+  <si>
+    <t>ae082e6baadd36616fbdd9cc3e475fda</t>
   </si>
   <si>
     <t>"title":"Errore di sintassi.",
 "detail":"ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'order' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected."</t>
   </si>
   <si>
-    <t>2025-05-12T08:50:43Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.694c736c6d7fe34a5aa2404748cd7da7d9e5c2f6b6fb353df474a1dc31caa32c.50fc7d3682^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d4e17f496448f77178c8777dc1a28651</t>
-  </si>
-  <si>
-    <t>2025-05-12T09:17:48Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.2ba6b3a29d0754194a97b1fd7dd60fe5210478b4ce51271f4ee6144f30e94876.1b6e0f8d4a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1ccda07c9270bc3c6c411c005707e009</t>
-  </si>
-  <si>
     <t>"title":"Errore di sintassi.",
-"detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":value}'. One of '{\"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.</t>
+"detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":value}'. One of '{\"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected."</t>
+  </si>
+  <si>
+    <t>2025-06-06T10:45:08Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.71e6611a3cce1f9d5430585be9e19acad3eeac352340aad930fae7e05472d6db.a69ac53f5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5a28f9a89ae9214d1501c88ee7f6fb6b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.6c796f219abc61092052cbd6e7cf98d48589b6ba76bb66875502ed2d2ffd7c2a.feb3c754fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>"title":"Errore semantico.",
 "detail":"[ERRORE-b28| Sezione Epicrisi: La sezione DEVE contenere l'elemento text obbligatorio.]"</t>
   </si>
   <si>
-    <t>2025-05-12T09:36:23Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.694c736c6d7fe34a5aa2404748cd7da7d9e5c2f6b6fb353df474a1dc31caa32c.591cb1cfb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>195b08c46c2358f1ca677b24457e34af</t>
+    <t>2025-06-06T11:15:17Z</t>
+  </si>
+  <si>
+    <t>966001228770cbc44277bcb42ec4ed2b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.71e6611a3cce1f9d5430585be9e19acad3eeac352340aad930fae7e05472d6db.e8342ccd3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-06T11:40:38Z</t>
+  </si>
+  <si>
+    <t>4e2466f06b93239456fcba73dd2ef916</t>
   </si>
   <si>
     <t>"title":"Errore semantico.",
 "detail":"[ERRORE-b195| Sezione Diagnosi: L'elemento entry/organizer/component/observation (Linfonodi) deve avere l'elemento value con @xsi:type='IVL_PQ', che identifica il numero dei linfonodi.]"</t>
   </si>
   <si>
-    <t>2025-05-12T15:10:44Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.51487f1851b3f85794fca0f54b824cbbb164661a3c372b71a06ed65935a104f4.c54f679b70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>dd44541b55f97452adbe202dd4f8e791</t>
+    <t>2025-06-06T12:01:04Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.71e6611a3cce1f9d5430585be9e19acad3eeac352340aad930fae7e05472d6db.6c349fdd3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>18f5a7c94643a32e46667b1bd95d58ac</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.caee63b431f9a17f2239da4c056e5a808fe634939d46a1c7ec6cb177236b0d25.ea8de0e0ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-06T13:02:16Z</t>
+  </si>
+  <si>
+    <t>951d6844aaf6528d6ec53a419c1cb5c9</t>
   </si>
   <si>
     <t>"title":"Errore semantico.",
-"detail":"[ERRORE-b69| Sotto-sezione Anamnesi (entry Anamnesi familiare): L'elemento entry/organizer/subject/relatedSubject deve contenere l'elemento code.]"</t>
-  </si>
-  <si>
-    <t>2025-05-12T16:54:51Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.601e8d42f7fd9e4372ba2e85edaca709798a24c787dc45ce76810855ba78cf3d.5161d1964f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>946b5456e14e669e4f2e1a1f123a5305</t>
+"detail":"[ERRORE-b103| SSotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime è obbligatorio.]"</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.caee63b431f9a17f2239da4c056e5a808fe634939d46a1c7ec6cb177236b0d25.864b353970^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c382e597deac625b66c4760ca33b6aa0</t>
+  </si>
+  <si>
+    <t>2025-06-06T14:42:02Z</t>
   </si>
   <si>
     <t>"title":"Errore vocabolario.",
-"detail":"Almeno uno dei seguenti vocaboli non censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: CODICE_PATOLOGIA_ERRATO_TEST442]"</t>
-  </si>
-  <si>
-    <t>2025-05-12T17:10:02Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.601e8d42f7fd9e4372ba2e85edaca709798a24c787dc45ce76810855ba78cf3d.669afec4fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ba5a9b7b9d9d39f7d5e1ff023c77aad4</t>
-  </si>
-  <si>
-    <t>"title":"Errore di sintassi.",
+"detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: CODICE_PATOLOGIA_ERRATO_TEST442]"</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.caee63b431f9a17f2239da4c056e5a808fe634939d46a1c7ec6cb177236b0d25.16b1b42ed0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-06T14:59:13Z</t>
+  </si>
+  <si>
+    <t>"title": "Errore semantico.",
 "detail":"ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'entryRelationship' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":sequenceNumber, \"urn:hl7-org:v3\":seperatableInd, \"urn:hl7-org:v3\":act, \"urn:hl7-org:v3\":encounter, \"urn:hl7-org:v3\":observation, \"urn:hl7-org:v3\":observationMedia, \"urn:hl7-org:v3\":organizer, \"urn:hl7-org:v3\":procedure, \"urn:hl7-org:v3\":regionOfInterest, \"urn:hl7-org:v3\":substanceAdministration, \"urn:hl7-org:v3\":supply}' is expected."</t>
   </si>
   <si>
-    <t>"title": "Errore generico",
-"detail": "Errore timeout",</t>
-  </si>
-  <si>
-    <t>Poiché l'errore è bloccante, non è possibile procedere con la firma e la sottomissione al repository. L'utente dovrà attendere la risoluzione della non conformità e riprovare a firmare il referto.</t>
-  </si>
-  <si>
-    <t>2025-05-12T17:30:37Z</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>64e23b58eca3a696ddae98199a587a2b</t>
-  </si>
-  <si>
-    <t>"title":"Campo token JWT non valido.",
-"detail":"Il campo action_id non corretto"</t>
-  </si>
-  <si>
-    <t>"title":"Campo token JWT non valido.",
-"detail":"Il campo purpose_of_use non valorizzato"</t>
-  </si>
-  <si>
-    <t>2025-05-12T17:29:15Z</t>
-  </si>
-  <si>
-    <t>56db56564fb0753c147b1f0192e6bd88</t>
-  </si>
-  <si>
-    <t>2025-05-13T14:19:42Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.55440c4594be0b8015ee10be0f8ed40a5f84689463aef994c8485d36ce11159c.d568f066f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>93aeaeda9ee13b9086b886801dfd1973</t>
-  </si>
-  <si>
-    <t>2025-05-13T14:56:04Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.99c0a01299c7e21036a6eb3d3e8d14c83a9f183e3f96a96e25b7294ff9555d5e.28676ae826^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ef7e308caf9954e44429a212d2b9f9a9</t>
-  </si>
-  <si>
-    <t>2025-05-13T15:16:58Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.6de4ca8f5586f02a621051a354094dd9aa43dbbbce2677ed3db6d8667e87cd7c.bb08691994^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e58a3278596aa561db9aad19a8381a37</t>
-  </si>
-  <si>
-    <t>2025-05-13T15:29:50Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30967.f6fdce50087085e61955ba9ed1acbbb7c567fd79a208538b21a99e3bb0c13a43.6dd0c61943^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d1bc8a5e4e9d1a05dbf29ccbdd75ef5a</t>
-  </si>
-  <si>
-    <t>DEDALUS</t>
-  </si>
-  <si>
-    <t>subject_application_id: LABMANAGER</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: DEDALUS SPA</t>
-  </si>
-  <si>
-    <t>subject_application_version: 1.1.1</t>
+    <t>ee0b05323c3297fa7ae49de2e14a9048</t>
+  </si>
+  <si>
+    <t>2025-06-06T17:46:13Z</t>
+  </si>
+  <si>
+    <t>2025-06-06T17:52:48Z</t>
+  </si>
+  <si>
+    <t>938de746ceb20624dd5c785e9d119c41</t>
+  </si>
+  <si>
+    <t>d10c062735383fe7c6b1f7ffc2f922df</t>
+  </si>
+  <si>
+    <t>2025-06-17T17:26:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.3e5c436200160410fe3c42cb9f2897bc068b2e3f6d9022b45d43bd3c3d4d78da.02956cac6a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>640fb77646c9a01b5cae1cb963ad2a5e</t>
+  </si>
+  <si>
+    <t>2025-06-18T09:03:35Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.d87f0f69c9f2ac76c0f0ee9048f29221f3619d1b4092ca2b6e6aed4c6c3fcbbc.1d7b5bed1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>31a0aaa06ed828b993184b36afd563b6</t>
+  </si>
+  <si>
+    <t>2025-06-18T11:19:01Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.7ab9778cfbd0fc2485bfa52028aa1990218079a0cebd587471de1d5ef7702e35.7c0b5a27b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c65974b5197d2a4a6775d246267cd36b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30967.a4615b18333602aca70c7cf5b23e15cf0782c20618573b7dcca6469dc38581cb.00bbb7e6bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-18T12:02:56Z</t>
+  </si>
+  <si>
+    <t>d0122a7719d6864f867b98130b43d857</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2506,6 +2515,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2604,6 +2616,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2824,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3974,10 +3990,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q160" sqref="Q160"/>
+      <selection pane="bottomRight" activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4019,14 +4035,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4047,14 +4063,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" s="48"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4075,12 +4091,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="D4" s="48"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4102,12 +4118,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
-        <v>498</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4128,8 +4144,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9514,16 +9530,16 @@
         <v>297</v>
       </c>
       <c r="F151" s="37">
-        <v>45790</v>
+        <v>45825</v>
       </c>
       <c r="G151" s="37" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="H151" s="37" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="I151" s="42" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="J151" s="38" t="s">
         <v>64</v>
@@ -9561,16 +9577,16 @@
         <v>296</v>
       </c>
       <c r="F152" s="37">
-        <v>45790</v>
+        <v>45826</v>
       </c>
       <c r="G152" s="37" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="I152" s="42" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="J152" s="38" t="s">
         <v>64</v>
@@ -9608,16 +9624,16 @@
         <v>283</v>
       </c>
       <c r="F153" s="37">
-        <v>45790</v>
+        <v>45826</v>
       </c>
       <c r="G153" s="37" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H153" s="37" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="I153" s="42" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="J153" s="38" t="s">
         <v>64</v>
@@ -9655,16 +9671,16 @@
         <v>43</v>
       </c>
       <c r="F154" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G154" s="37" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H154" s="37" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="I154" s="42" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="J154" s="38" t="s">
         <v>64</v>
@@ -9678,10 +9694,10 @@
         <v>64</v>
       </c>
       <c r="O154" s="38" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="P154" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q154" s="38" t="s">
         <v>232</v>
@@ -9690,7 +9706,7 @@
         <v>232</v>
       </c>
       <c r="S154" s="38" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="T154" s="38"/>
       <c r="U154" s="39"/>
@@ -9716,16 +9732,16 @@
         <v>55</v>
       </c>
       <c r="F155" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G155" s="37" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="I155" s="42" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="J155" s="38" t="s">
         <v>64</v>
@@ -9739,10 +9755,10 @@
         <v>64</v>
       </c>
       <c r="O155" s="38" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="P155" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q155" s="38" t="s">
         <v>232</v>
@@ -9751,7 +9767,7 @@
         <v>232</v>
       </c>
       <c r="S155" s="38" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="T155" s="38"/>
       <c r="U155" s="39"/>
@@ -9776,8 +9792,8 @@
       <c r="E156" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="F156" s="37">
-        <v>45786</v>
+      <c r="F156" s="45">
+        <v>45813</v>
       </c>
       <c r="G156" s="37"/>
       <c r="H156" s="37"/>
@@ -9794,10 +9810,10 @@
         <v>64</v>
       </c>
       <c r="O156" s="38" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="P156" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q156" s="38" t="s">
         <v>232</v>
@@ -9806,7 +9822,7 @@
         <v>232</v>
       </c>
       <c r="S156" s="38" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="T156" s="38"/>
       <c r="U156" s="39"/>
@@ -9832,16 +9848,16 @@
         <v>277</v>
       </c>
       <c r="F157" s="37">
-        <v>45786</v>
+        <v>45813</v>
       </c>
       <c r="G157" s="37" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="H157" s="37" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I157" s="42" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="J157" s="38" t="s">
         <v>64</v>
@@ -9855,10 +9871,10 @@
         <v>64</v>
       </c>
       <c r="O157" s="38" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="P157" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q157" s="38" t="s">
         <v>232</v>
@@ -9867,7 +9883,7 @@
         <v>232</v>
       </c>
       <c r="S157" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T157" s="38"/>
       <c r="U157" s="39"/>
@@ -9893,16 +9909,16 @@
         <v>278</v>
       </c>
       <c r="F158" s="37">
-        <v>45786</v>
+        <v>45814</v>
       </c>
       <c r="G158" s="37" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H158" s="37" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="I158" s="42" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="J158" s="38" t="s">
         <v>64</v>
@@ -9916,10 +9932,10 @@
         <v>64</v>
       </c>
       <c r="O158" s="38" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P158" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q158" s="38" t="s">
         <v>232</v>
@@ -9928,7 +9944,7 @@
         <v>232</v>
       </c>
       <c r="S158" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T158" s="38"/>
       <c r="U158" s="39"/>
@@ -9954,16 +9970,16 @@
         <v>279</v>
       </c>
       <c r="F159" s="37">
-        <v>45786</v>
+        <v>45814</v>
       </c>
       <c r="G159" s="37" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H159" s="37" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="I159" s="42" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="J159" s="38" t="s">
         <v>64</v>
@@ -9977,10 +9993,10 @@
         <v>64</v>
       </c>
       <c r="O159" s="38" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="P159" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q159" s="38" t="s">
         <v>232</v>
@@ -9989,7 +10005,7 @@
         <v>232</v>
       </c>
       <c r="S159" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T159" s="38"/>
       <c r="U159" s="39"/>
@@ -10015,16 +10031,16 @@
         <v>280</v>
       </c>
       <c r="F160" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G160" s="37" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="I160" s="42" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="J160" s="38" t="s">
         <v>64</v>
@@ -10038,10 +10054,10 @@
         <v>64</v>
       </c>
       <c r="O160" s="38" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P160" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q160" s="38" t="s">
         <v>232</v>
@@ -10050,7 +10066,7 @@
         <v>232</v>
       </c>
       <c r="S160" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T160" s="38"/>
       <c r="U160" s="39"/>
@@ -10076,16 +10092,16 @@
         <v>270</v>
       </c>
       <c r="F161" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G161" s="37" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="I161" s="42" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="J161" s="38" t="s">
         <v>64</v>
@@ -10099,10 +10115,10 @@
         <v>64</v>
       </c>
       <c r="O161" s="38" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P161" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q161" s="38" t="s">
         <v>232</v>
@@ -10111,7 +10127,7 @@
         <v>232</v>
       </c>
       <c r="S161" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T161" s="38"/>
       <c r="U161" s="39"/>
@@ -10137,16 +10153,16 @@
         <v>271</v>
       </c>
       <c r="F162" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G162" s="37" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="I162" s="42" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="J162" s="38" t="s">
         <v>64</v>
@@ -10160,10 +10176,10 @@
         <v>64</v>
       </c>
       <c r="O162" s="38" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P162" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q162" s="38" t="s">
         <v>232</v>
@@ -10172,7 +10188,7 @@
         <v>232</v>
       </c>
       <c r="S162" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T162" s="38"/>
       <c r="U162" s="39"/>
@@ -10198,16 +10214,16 @@
         <v>281</v>
       </c>
       <c r="F163" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G163" s="37" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="I163" s="42" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="J163" s="38" t="s">
         <v>64</v>
@@ -10221,10 +10237,10 @@
         <v>64</v>
       </c>
       <c r="O163" s="38" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="P163" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q163" s="38" t="s">
         <v>232</v>
@@ -10233,7 +10249,7 @@
         <v>232</v>
       </c>
       <c r="S163" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T163" s="38"/>
       <c r="U163" s="39"/>
@@ -10259,16 +10275,16 @@
         <v>282</v>
       </c>
       <c r="F164" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G164" s="37" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="I164" s="42" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="J164" s="38" t="s">
         <v>64</v>
@@ -10282,10 +10298,10 @@
         <v>64</v>
       </c>
       <c r="O164" s="38" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="P164" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q164" s="38" t="s">
         <v>232</v>
@@ -10294,7 +10310,7 @@
         <v>232</v>
       </c>
       <c r="S164" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T164" s="38"/>
       <c r="U164" s="39"/>
@@ -10320,16 +10336,16 @@
         <v>274</v>
       </c>
       <c r="F165" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G165" s="37" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="I165" s="42" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="J165" s="38" t="s">
         <v>64</v>
@@ -10343,10 +10359,10 @@
         <v>64</v>
       </c>
       <c r="O165" s="38" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="P165" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q165" s="38" t="s">
         <v>232</v>
@@ -10355,7 +10371,7 @@
         <v>232</v>
       </c>
       <c r="S165" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T165" s="38"/>
       <c r="U165" s="39"/>
@@ -10381,16 +10397,16 @@
         <v>275</v>
       </c>
       <c r="F166" s="37">
-        <v>45789</v>
+        <v>45814</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10404,10 +10420,10 @@
         <v>64</v>
       </c>
       <c r="O166" s="38" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="P166" s="38" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q166" s="38" t="s">
         <v>232</v>
@@ -10416,7 +10432,7 @@
         <v>232</v>
       </c>
       <c r="S166" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T166" s="38"/>
       <c r="U166" s="39"/>
@@ -10923,16 +10939,16 @@
         <v>372</v>
       </c>
       <c r="F180" s="37">
-        <v>45790</v>
+        <v>45826</v>
       </c>
       <c r="G180" s="37" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H180" s="37" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="I180" s="42" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="J180" s="38" t="s">
         <v>64</v>
@@ -15505,7 +15521,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J192 P10:R192 M10:N192</xm:sqref>
+          <xm:sqref>M10:N192 J10:J192 P10:R192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -15584,7 +15600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
@@ -17768,6 +17784,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17776,7 +17804,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18034,19 +18062,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -18054,7 +18087,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18071,21 +18104,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>